--- a/Excel/连井剖面.xlsx
+++ b/Excel/连井剖面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8AFF56-1942-4DD8-B958-85DA6E93612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A321049B-00E1-4405-845D-890E84596219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,24 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
-  <si>
-    <t>井名</t>
-  </si>
-  <si>
-    <t>砂层组</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
   <si>
     <t>单油层</t>
-  </si>
-  <si>
-    <t>孔隙度（%）</t>
-  </si>
-  <si>
-    <t>渗透率(10-3μm2)</t>
-  </si>
-  <si>
-    <t>含油饱和度(%)</t>
   </si>
   <si>
     <t>D12</t>
@@ -127,6 +112,34 @@
   </si>
   <si>
     <t>有效厚度(米)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂层组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透率(10-3μm2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含油饱和度(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔隙度(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,17 +468,17 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,28 +524,28 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1590</v>
@@ -546,7 +559,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2700</v>
@@ -560,7 +573,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1510</v>
@@ -574,7 +587,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -588,7 +601,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1890</v>
@@ -602,7 +615,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>3032</v>
@@ -616,7 +629,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -630,7 +643,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>170</v>
@@ -644,7 +657,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>3000</v>
@@ -664,55 +677,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>2931</v>
@@ -735,16 +751,19 @@
       <c r="J2">
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2940</v>
@@ -767,16 +786,19 @@
       <c r="J3">
         <v>76.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4">
         <v>2948</v>
@@ -799,16 +821,19 @@
       <c r="J4">
         <v>74.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -831,16 +856,19 @@
       <c r="J5">
         <v>77.89</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2986</v>
@@ -863,16 +891,19 @@
       <c r="J6">
         <v>71.83</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>2995</v>
@@ -895,16 +926,19 @@
       <c r="J7">
         <v>72.180000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>3003</v>
@@ -927,16 +961,19 @@
       <c r="J8">
         <v>71.67</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>3011</v>
@@ -959,16 +996,19 @@
       <c r="J9">
         <v>70.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>2986</v>
@@ -991,16 +1031,19 @@
       <c r="J10">
         <v>67.319999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2995</v>
@@ -1023,16 +1066,19 @@
       <c r="J11">
         <v>65.28</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>3003</v>
@@ -1055,16 +1101,19 @@
       <c r="J12">
         <v>65.66</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>3011</v>
@@ -1087,16 +1136,19 @@
       <c r="J13">
         <v>60.76</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>2961</v>
@@ -1119,16 +1171,19 @@
       <c r="J14">
         <v>75.209999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>2970</v>
@@ -1151,16 +1206,19 @@
       <c r="J15">
         <v>74.010000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2978</v>
@@ -1183,16 +1241,19 @@
       <c r="J16">
         <v>72.88</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>2986</v>
@@ -1215,16 +1276,19 @@
       <c r="J17">
         <v>71.69</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>3031</v>
@@ -1247,16 +1311,19 @@
       <c r="J18">
         <v>61.55</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>3040</v>
@@ -1279,16 +1346,19 @@
       <c r="J19">
         <v>60.57</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>3048</v>
@@ -1311,16 +1381,19 @@
       <c r="J20">
         <v>69.540000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>3056</v>
@@ -1343,16 +1416,19 @@
       <c r="J21">
         <v>44.215000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>3031</v>
@@ -1375,16 +1451,19 @@
       <c r="J22">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>3040</v>
@@ -1407,16 +1486,19 @@
       <c r="J23">
         <v>58.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>3048</v>
@@ -1439,16 +1521,19 @@
       <c r="J24">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>3056</v>
@@ -1471,16 +1556,19 @@
       <c r="J25">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>3031</v>
@@ -1503,16 +1591,19 @@
       <c r="J26">
         <v>61.05</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>3040</v>
@@ -1535,16 +1626,19 @@
       <c r="J27">
         <v>62.48</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>3048</v>
@@ -1567,16 +1661,19 @@
       <c r="J28">
         <v>69.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>3056</v>
@@ -1599,16 +1696,19 @@
       <c r="J29">
         <v>38.386666666666663</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>2936</v>
@@ -1631,16 +1731,19 @@
       <c r="J30">
         <v>77.08</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>2945</v>
@@ -1663,16 +1766,19 @@
       <c r="J31">
         <v>75.319999999999993</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2953</v>
@@ -1695,16 +1801,19 @@
       <c r="J32">
         <v>73.86</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>2961</v>
@@ -1727,16 +1836,19 @@
       <c r="J33">
         <v>76.91</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>2936</v>
@@ -1759,16 +1871,19 @@
       <c r="J34">
         <v>73.44</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>2945</v>
@@ -1791,16 +1906,19 @@
       <c r="J35">
         <v>75.03</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2953</v>
@@ -1823,16 +1941,19 @@
       <c r="J36">
         <v>73.16</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>2961</v>
@@ -1854,6 +1975,9 @@
       </c>
       <c r="J37">
         <v>76.97</v>
+      </c>
+      <c r="K37" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/连井剖面.xlsx
+++ b/Excel/连井剖面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A321049B-00E1-4405-845D-890E84596219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84FF4D-AAD5-4C95-BDB3-03FE81F5555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,21 @@
     <sheet name="1井位坐标" sheetId="3" r:id="rId2"/>
     <sheet name="2分层数据" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="34">
   <si>
     <t>单油层</t>
   </si>
@@ -140,6 +151,14 @@
   </si>
   <si>
     <t>油层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格厚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +181,54 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,12 +236,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -471,9 +551,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -481,7 +561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -489,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -497,7 +577,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3200</v>
       </c>
@@ -505,7 +585,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3200</v>
       </c>
@@ -527,9 +607,9 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -543,7 +623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -571,7 +651,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -585,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -599,7 +679,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -613,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -627,7 +707,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -641,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -655,7 +735,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -677,1307 +757,1529 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2931</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2934.5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>3.5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>3.5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>18.010000000000002</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>12.69</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>78.099999999999994</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2940</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2944.5</v>
       </c>
-      <c r="F3">
-        <v>4.5</v>
-      </c>
-      <c r="G3">
-        <v>4.5</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>13.95</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>76.34</v>
       </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2948</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2952.5</v>
       </c>
-      <c r="F4">
-        <v>4.5</v>
-      </c>
-      <c r="G4">
-        <v>4.5</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="2">
         <v>26.55</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>89.96</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>74.84</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="4">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>2956</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>2960.5</v>
       </c>
-      <c r="F5">
-        <v>4.5</v>
-      </c>
-      <c r="G5">
-        <v>4.5</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="2">
         <v>22.21</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>92.45</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>77.89</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>2986</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2991</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
         <v>23.31</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>18.52</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>71.83</v>
       </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="5">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>2995</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>2998.5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>3.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>3.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>20.77</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>17.95</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>72.180000000000007</v>
       </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="K7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="M7" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>3003</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>3006.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>3.5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>3.5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>28.4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>103.04</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>71.67</v>
       </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="K8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="M8" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>3011</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>3015.5</v>
       </c>
-      <c r="F9">
-        <v>4.5</v>
-      </c>
-      <c r="G9">
-        <v>4.5</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="3">
         <v>23.83</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>98.65</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>70.86</v>
       </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>2986</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>2990.5</v>
       </c>
-      <c r="F10">
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <v>4.5</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="2">
         <v>17.54</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>14.21</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>67.319999999999993</v>
       </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="M10" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2995</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3000</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
         <v>15.68</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>12.71</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>65.28</v>
       </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="K11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="4">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>3003</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>3006.5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>3.5</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>3.5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>22.41</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>66.91</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>65.66</v>
       </c>
-      <c r="K12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="K12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="4">
+        <v>8</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>3011</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>3015.5</v>
       </c>
-      <c r="F13">
-        <v>4.5</v>
-      </c>
-      <c r="G13">
-        <v>4.5</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="2">
         <v>19.11</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>57.41</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>60.76</v>
       </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="K13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>2961</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>2964.5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>3.5</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>3.5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>21.54</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>16.47</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>75.209999999999994</v>
       </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="K14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="5">
+        <v>9</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2970</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>2973.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>3.5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>3.5</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>17.649999999999999</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>14.89</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>74.010000000000005</v>
       </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="K15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="5">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>2978</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>2982.5</v>
       </c>
-      <c r="F16">
-        <v>4.5</v>
-      </c>
-      <c r="G16">
-        <v>4.5</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H16" s="3">
         <v>25.42</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>82.02</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>72.88</v>
       </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="K16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="5">
+        <v>8</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>2986</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>2991</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
         <v>21.46</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>81.66</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>71.69</v>
       </c>
-      <c r="K17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="K17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="8">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>3031</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>3033</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
         <v>21.46</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>15.94</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>61.55</v>
       </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="K18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="4">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>3040</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>3042</v>
       </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
         <v>16.850000000000001</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>12.6</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>60.57</v>
       </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="4">
+        <v>8</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>3048</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>3052.5</v>
       </c>
-      <c r="F20">
-        <v>4.5</v>
-      </c>
-      <c r="G20">
-        <v>4.5</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H20" s="2">
         <v>25.47</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>59.73</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>69.540000000000006</v>
       </c>
-      <c r="K20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="K20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="4">
+        <v>8</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>3056</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>3060</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>4</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
         <v>22.27</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>54.23</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>44.215000000000003</v>
       </c>
-      <c r="K21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="K21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="8">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>3031</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>3033</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
         <v>13.73</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>10.96</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>61.2</v>
       </c>
-      <c r="K22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="K22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="5">
+        <v>9</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>3040</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>3041</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>17.25</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>11.81</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>58.14</v>
       </c>
-      <c r="K23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="K23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="5">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>3048</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>3052.5</v>
       </c>
-      <c r="F24">
-        <v>4.5</v>
-      </c>
-      <c r="G24">
-        <v>4.5</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H24" s="3">
         <v>18.47</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>43.41</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>68.599999999999994</v>
       </c>
-      <c r="K24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="K24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="5">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>3056</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>3059</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>19.536666666666665</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>44.243333333333332</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>38.4</v>
       </c>
-      <c r="K25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="K25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="8">
+        <v>3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>3031</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>3034.5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>3.5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>3.5</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>18.39</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>17.989999999999998</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>61.05</v>
       </c>
-      <c r="K26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="K26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="4">
+        <v>9</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>3040</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>3041</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>18.670000000000002</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>16.57</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>62.48</v>
       </c>
-      <c r="K27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="K27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="4">
+        <v>8</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>3048</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>3052.5</v>
       </c>
-      <c r="F28">
-        <v>4.5</v>
-      </c>
-      <c r="G28">
-        <v>4.5</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H28" s="2">
         <v>27.47</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>71.73</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>69.28</v>
       </c>
-      <c r="K28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="K28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="4">
+        <v>8</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>3056</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>3059</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>25.00333333333333</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>85.063333333333333</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>38.386666666666663</v>
       </c>
-      <c r="K29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="K29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="8">
+        <v>3</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>2936</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>2939.5</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>3.5</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>3.5</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>17.010000000000002</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>14.29</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>77.08</v>
       </c>
-      <c r="K30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="K30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="5">
+        <v>9</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>2945</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>2949.5</v>
       </c>
-      <c r="F31">
-        <v>4.5</v>
-      </c>
-      <c r="G31">
-        <v>4.5</v>
-      </c>
-      <c r="H31">
+      <c r="F31" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H31" s="3">
         <v>22.6</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>19.350000000000001</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>75.319999999999993</v>
       </c>
-      <c r="K31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="K31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="5">
+        <v>8</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>2953</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>2957.5</v>
       </c>
-      <c r="F32">
-        <v>4.5</v>
-      </c>
-      <c r="G32">
-        <v>4.5</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H32" s="3">
         <v>25.15</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>94.96</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>73.86</v>
       </c>
-      <c r="K32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="K32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="5">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
         <v>2961</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>2965.5</v>
       </c>
-      <c r="F33">
-        <v>4.5</v>
-      </c>
-      <c r="G33">
-        <v>4.5</v>
-      </c>
-      <c r="H33">
+      <c r="F33" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H33" s="3">
         <v>28.61</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>107.45</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>76.91</v>
       </c>
-      <c r="K33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="K33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>2936</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>2939.5</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>3.5</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>3.5</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>12.54</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>10.210000000000001</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>73.44</v>
       </c>
-      <c r="K34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="K34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="4">
+        <v>9</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>2945</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>2949.5</v>
       </c>
-      <c r="F35">
-        <v>4.5</v>
-      </c>
-      <c r="G35">
-        <v>4.5</v>
-      </c>
-      <c r="H35">
+      <c r="F35" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H35" s="2">
         <v>16.68</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>13.86</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>75.03</v>
       </c>
-      <c r="K35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="K35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="4">
+        <v>8</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>2953</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>2956.5</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>3.5</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>3.5</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>19.010000000000002</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>61.91</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>73.16</v>
       </c>
-      <c r="K36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="K36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="4">
+        <v>8</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
         <v>2961</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>2965.5</v>
       </c>
-      <c r="F37">
-        <v>4.5</v>
-      </c>
-      <c r="G37">
-        <v>4.5</v>
-      </c>
-      <c r="H37">
+      <c r="F37" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H37" s="2">
         <v>23.51</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>68.41</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>76.97</v>
       </c>
-      <c r="K37" t="s">
-        <v>31</v>
+      <c r="K37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.5625</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/连井剖面.xlsx
+++ b/Excel/连井剖面.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\油藏设计\Work\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84FF4D-AAD5-4C95-BDB3-03FE81F5555E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56ED552-C5DD-4C5A-99A6-4F7031595645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0工区坐标" sheetId="2" r:id="rId1"/>
     <sheet name="1井位坐标" sheetId="3" r:id="rId2"/>
     <sheet name="2分层数据" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2分层数据'!$A$1:$N$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
   <si>
     <t>单油层</t>
   </si>
@@ -159,6 +162,10 @@
   </si>
   <si>
     <t>NTG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力(Mpa)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +198,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,11 +265,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -265,6 +290,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -604,7 +632,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -757,15 +785,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -805,8 +834,11 @@
       <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -846,8 +878,12 @@
       <c r="M2" s="2">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="10">
+        <f>1.05*9.8*(D2+E2)/2/1000</f>
+        <v>30.1779975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -887,8 +923,12 @@
       <c r="M3" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="10">
+        <f t="shared" ref="N3:N37" si="0">1.05*9.8*(D3+E3)/2/1000</f>
+        <v>30.275752500000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -928,8 +968,12 @@
       <c r="M4" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="10">
+        <f t="shared" si="0"/>
+        <v>30.358072500000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -969,8 +1013,12 @@
       <c r="M5" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="10">
+        <f t="shared" si="0"/>
+        <v>30.440392500000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1058,12 @@
       <c r="M6" s="3">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>30.751665000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1051,8 +1103,12 @@
       <c r="M7" s="3">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="11">
+        <f t="shared" si="0"/>
+        <v>30.836557500000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1148,12 @@
       <c r="M8" s="3">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>30.918877500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1133,8 +1193,12 @@
       <c r="M9" s="3">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="11">
+        <f t="shared" si="0"/>
+        <v>31.006342500000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1174,8 +1238,12 @@
       <c r="M10" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="10">
+        <f t="shared" si="0"/>
+        <v>30.749092500000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1215,8 +1283,12 @@
       <c r="M11" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="10">
+        <f t="shared" si="0"/>
+        <v>30.844275000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1256,8 +1328,12 @@
       <c r="M12" s="2">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="10">
+        <f t="shared" si="0"/>
+        <v>30.918877500000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1297,8 +1373,12 @@
       <c r="M13" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="10">
+        <f t="shared" si="0"/>
+        <v>31.006342500000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1338,8 +1418,12 @@
       <c r="M14" s="3">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>30.486697500000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1379,8 +1463,12 @@
       <c r="M15" s="3">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="11">
+        <f t="shared" si="0"/>
+        <v>30.579307500000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1420,8 +1508,12 @@
       <c r="M16" s="3">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>30.666772500000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1461,8 +1553,12 @@
       <c r="M17" s="3">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="11">
+        <f t="shared" si="0"/>
+        <v>30.751665000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1502,8 +1598,12 @@
       <c r="M18" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="10">
+        <f t="shared" si="0"/>
+        <v>31.199280000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1543,8 +1643,12 @@
       <c r="M19" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="10">
+        <f t="shared" si="0"/>
+        <v>31.291890000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1584,8 +1688,12 @@
       <c r="M20" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="10">
+        <f t="shared" si="0"/>
+        <v>31.387072500000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1625,8 +1733,12 @@
       <c r="M21" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="10">
+        <f t="shared" si="0"/>
+        <v>31.466820000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1666,8 +1778,12 @@
       <c r="M22" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="11">
+        <f t="shared" si="0"/>
+        <v>31.199280000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1707,8 +1823,12 @@
       <c r="M23" s="3">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="11">
+        <f t="shared" si="0"/>
+        <v>31.286745000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1748,8 +1868,12 @@
       <c r="M24" s="3">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="11">
+        <f t="shared" si="0"/>
+        <v>31.387072500000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1772,10 +1896,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>19.536666666666665</v>
+        <v>19.5367</v>
       </c>
       <c r="I25" s="3">
-        <v>44.243333333333332</v>
+        <v>44.243000000000002</v>
       </c>
       <c r="J25" s="3">
         <v>38.4</v>
@@ -1789,8 +1913,12 @@
       <c r="M25" s="3">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="11">
+        <f t="shared" si="0"/>
+        <v>31.461675000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1830,8 +1958,12 @@
       <c r="M26" s="2">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="10">
+        <f t="shared" si="0"/>
+        <v>31.2069975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1871,8 +2003,12 @@
       <c r="M27" s="2">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="10">
+        <f t="shared" si="0"/>
+        <v>31.286745000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1912,8 +2048,12 @@
       <c r="M28" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="10">
+        <f t="shared" si="0"/>
+        <v>31.387072500000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1936,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>25.00333333333333</v>
+        <v>25</v>
       </c>
       <c r="I29" s="2">
-        <v>85.063333333333333</v>
+        <v>85.063000000000002</v>
       </c>
       <c r="J29" s="2">
-        <v>38.386666666666663</v>
+        <v>38.386699999999998</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>31</v>
@@ -1953,8 +2093,12 @@
       <c r="M29" s="2">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="10">
+        <f t="shared" si="0"/>
+        <v>31.461675000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -1994,8 +2138,12 @@
       <c r="M30" s="3">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="11">
+        <f t="shared" si="0"/>
+        <v>30.229447500000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -2035,8 +2183,12 @@
       <c r="M31" s="3">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="11">
+        <f t="shared" si="0"/>
+        <v>30.327202500000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2076,8 +2228,12 @@
       <c r="M32" s="3">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="11">
+        <f t="shared" si="0"/>
+        <v>30.409522500000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2117,8 +2273,12 @@
       <c r="M33" s="3">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="11">
+        <f t="shared" si="0"/>
+        <v>30.491842500000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2158,8 +2318,12 @@
       <c r="M34" s="2">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="10">
+        <f t="shared" si="0"/>
+        <v>30.229447500000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -2199,8 +2363,12 @@
       <c r="M35" s="2">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="10">
+        <f t="shared" si="0"/>
+        <v>30.327202500000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2240,8 +2408,12 @@
       <c r="M36" s="2">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="10">
+        <f t="shared" si="0"/>
+        <v>30.404377500000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -2281,8 +2453,22 @@
       <c r="M37" s="2">
         <v>0.5625</v>
       </c>
+      <c r="N37" s="10">
+        <f t="shared" si="0"/>
+        <v>30.491842500000004</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="K2_2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <iconFilter iconSet="3Arrows"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
